--- a/trained_models/Metrics_Comparison.xlsx
+++ b/trained_models/Metrics_Comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Semitic\trained_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C3E65C1-6741-4E2D-8AB9-22CB591ECEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47DB006-A213-475D-A1BC-9EF8C9654D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA89C1CA-9952-435B-94E2-D404BE55F351}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{BA89C1CA-9952-435B-94E2-D404BE55F351}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>model type</t>
   </si>
@@ -53,9 +53,6 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>soft_accuracy</t>
-  </si>
-  <si>
     <t>3 letters</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>regular words accuracy</t>
   </si>
   <si>
-    <t>checked words</t>
-  </si>
-  <si>
     <t>correct</t>
   </si>
   <si>
@@ -89,21 +83,35 @@
     <t>1-output</t>
   </si>
   <si>
-    <t>Parameters (in thousands)</t>
-  </si>
-  <si>
     <t>prediction_type</t>
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Parameters (Thousands)</t>
+  </si>
+  <si>
+    <t>words checked</t>
+  </si>
+  <si>
+    <t>soft accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -119,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,11 +150,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +194,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,125 +528,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57F68E1-58F1-4F46-88B3-D3E67822493D}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
+      <c r="D2" s="6">
+        <v>111</v>
+      </c>
+      <c r="E2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>6626</v>
+      </c>
+      <c r="G2" s="6">
+        <f>E2-F2</f>
+        <v>3374</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="L2" s="6">
+        <v>6626</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2726</v>
+      </c>
+      <c r="N2" s="5">
+        <v>575</v>
+      </c>
+      <c r="O2" s="5">
+        <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3">
-        <v>118</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>9659</v>
-      </c>
-      <c r="G2" s="3">
-        <f>E2-F2</f>
-        <v>341</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.96589999999999998</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.92069999999999996</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.97640000000000005</v>
-      </c>
-      <c r="L2" s="3">
-        <v>9659</v>
-      </c>
-      <c r="M2" s="2">
-        <v>277</v>
-      </c>
-      <c r="N2" s="2">
-        <v>48</v>
-      </c>
-      <c r="O2" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -600,44 +654,44 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>322</v>
+        <v>118</v>
       </c>
       <c r="E3" s="3">
         <v>10000</v>
       </c>
       <c r="F3" s="3">
-        <v>9684</v>
+        <v>9659</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G6" si="0">E3-F3</f>
-        <v>316</v>
+        <f>E3-F3</f>
+        <v>341</v>
       </c>
       <c r="H3" s="4">
-        <v>0.96840000000000004</v>
+        <v>0.96589999999999998</v>
       </c>
       <c r="I3" s="4">
-        <v>0.98709999999999998</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="J3" s="4">
-        <v>0.92430000000000001</v>
+        <v>0.97640000000000005</v>
       </c>
       <c r="K3" s="4">
-        <v>0.97870000000000001</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="L3" s="3">
-        <v>9684</v>
+        <v>9659</v>
       </c>
       <c r="M3" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="N3" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,47 +699,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
-        <v>1114</v>
+        <v>322</v>
       </c>
       <c r="E4" s="3">
         <v>10000</v>
       </c>
       <c r="F4" s="3">
-        <v>9609</v>
+        <v>9684</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>391</v>
+        <f t="shared" ref="G4:G7" si="0">E4-F4</f>
+        <v>316</v>
       </c>
       <c r="H4" s="4">
-        <v>0.96089999999999998</v>
+        <v>0.96840000000000004</v>
       </c>
       <c r="I4" s="4">
-        <v>0.98309999999999997</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="J4" s="4">
-        <v>0.9073</v>
+        <v>0.97870000000000001</v>
       </c>
       <c r="K4" s="4">
-        <v>0.97309999999999997</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="L4" s="3">
-        <v>9609</v>
+        <v>9684</v>
       </c>
       <c r="M4" s="2">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="N4" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,47 +747,47 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3">
-        <v>39</v>
+        <v>1114</v>
       </c>
       <c r="E5" s="3">
         <v>10000</v>
       </c>
       <c r="F5" s="3">
-        <v>9169</v>
+        <v>9609</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>831</v>
+        <v>391</v>
       </c>
       <c r="H5" s="4">
-        <v>0.91690000000000005</v>
+        <v>0.96089999999999998</v>
       </c>
       <c r="I5" s="4">
-        <v>0.96319999999999995</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="J5" s="4">
-        <v>0.94699999999999995</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="K5" s="4">
-        <v>0.78759999999999997</v>
+        <v>0.9073</v>
       </c>
       <c r="L5" s="3">
-        <v>9169</v>
+        <v>9609</v>
       </c>
       <c r="M5" s="2">
-        <v>605</v>
+        <v>296</v>
       </c>
       <c r="N5" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,47 +798,119 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3">
         <v>10000</v>
       </c>
       <c r="F6" s="3">
-        <v>9495</v>
+        <v>9169</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
+        <v>831</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="L6" s="3">
+        <v>9169</v>
+      </c>
+      <c r="M6" s="2">
+        <v>605</v>
+      </c>
+      <c r="N6" s="2">
+        <v>179</v>
+      </c>
+      <c r="O6" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>86</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9495</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>505</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>0.94950000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>0.97709999999999997</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="K7" s="4">
         <v>0.87719999999999998</v>
       </c>
-      <c r="K6" s="4">
-        <v>0.96679999999999999</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="L7" s="3">
         <v>9495</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M7" s="2">
         <v>359</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N7" s="2">
         <v>111</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O7" s="2">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>